--- a/data_year/zb/建筑业/勘察设计机构.xlsx
+++ b/data_year/zb/建筑业/勘察设计机构.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,287 +493,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6105799.64</v>
+        <v>12309670</v>
       </c>
       <c r="C2" t="n">
-        <v>2160221.55</v>
+        <v>5303439</v>
       </c>
       <c r="D2" t="n">
-        <v>13493933.56</v>
+        <v>56340241</v>
       </c>
       <c r="E2" t="n">
-        <v>7966429.37</v>
+        <v>21514277</v>
       </c>
       <c r="F2" t="n">
-        <v>29726384.12</v>
+        <v>95467626</v>
       </c>
       <c r="G2" t="n">
-        <v>317120</v>
+        <v>363378</v>
       </c>
       <c r="H2" t="n">
-        <v>308952</v>
+        <v>534714</v>
       </c>
       <c r="I2" t="n">
-        <v>220094</v>
+        <v>269603</v>
       </c>
       <c r="J2" t="n">
-        <v>14245</v>
+        <v>14622</v>
       </c>
       <c r="K2" t="n">
-        <v>1077785</v>
+        <v>1422995</v>
       </c>
       <c r="L2" t="n">
-        <v>231619</v>
+        <v>255300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6984134.62</v>
+        <v>17071376.38</v>
       </c>
       <c r="C3" t="n">
-        <v>2502299.94</v>
+        <v>6539831.67</v>
       </c>
       <c r="D3" t="n">
-        <v>18069379.73</v>
+        <v>78861342.26000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9588389.75</v>
+        <v>26674754.01</v>
       </c>
       <c r="F3" t="n">
-        <v>37144204.04</v>
+        <v>129147304.32</v>
       </c>
       <c r="G3" t="n">
-        <v>321386</v>
+        <v>408898</v>
       </c>
       <c r="H3" t="n">
-        <v>329412</v>
+        <v>729246</v>
       </c>
       <c r="I3" t="n">
-        <v>229002</v>
+        <v>319449</v>
       </c>
       <c r="J3" t="n">
-        <v>14264</v>
+        <v>16482</v>
       </c>
       <c r="K3" t="n">
-        <v>1120719</v>
+        <v>1728497</v>
       </c>
       <c r="L3" t="n">
-        <v>240919</v>
+        <v>270904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8630817.500000009</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2762379.29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23634957.27</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11815053.57</v>
-      </c>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>46843207.63</v>
+        <v>161706306.55</v>
       </c>
       <c r="G4" t="n">
-        <v>328735</v>
-      </c>
-      <c r="H4" t="n">
-        <v>362512</v>
-      </c>
+        <v>454920</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>240579</v>
+        <v>386726</v>
       </c>
       <c r="J4" t="n">
-        <v>14151</v>
+        <v>18280</v>
       </c>
       <c r="K4" t="n">
-        <v>1175258</v>
+        <v>2123379</v>
       </c>
       <c r="L4" t="n">
-        <v>243432</v>
+        <v>291700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10130565.76</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3373862.3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32183281.66</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13995600.14</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>59683309.86</v>
+        <v>214098129</v>
       </c>
       <c r="G5" t="n">
-        <v>341978</v>
-      </c>
-      <c r="H5" t="n">
-        <v>404356</v>
-      </c>
+        <v>486530</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>254933</v>
+        <v>421410</v>
       </c>
       <c r="J5" t="n">
-        <v>14667</v>
+        <v>19231</v>
       </c>
       <c r="K5" t="n">
-        <v>1249062</v>
+        <v>2444232</v>
       </c>
       <c r="L5" t="n">
-        <v>247795</v>
+        <v>305167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9051710.26</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4092137.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38832817.16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16552363.35</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>68529028.13</v>
+        <v>271515354</v>
       </c>
       <c r="G6" t="n">
-        <v>338350</v>
-      </c>
-      <c r="H6" t="n">
-        <v>440390</v>
-      </c>
+        <v>484861</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>250723</v>
+        <v>402541</v>
       </c>
       <c r="J6" t="n">
-        <v>14264</v>
+        <v>19262</v>
       </c>
       <c r="K6" t="n">
-        <v>1272963</v>
+        <v>2502794</v>
       </c>
       <c r="L6" t="n">
-        <v>243500</v>
+        <v>303264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12309670</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5303439</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56340241</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21514277</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>95467626</v>
+        <v>270890368</v>
       </c>
       <c r="G7" t="n">
-        <v>363378</v>
-      </c>
-      <c r="H7" t="n">
-        <v>534714</v>
-      </c>
+        <v>514204</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>269603</v>
+        <v>414378</v>
       </c>
       <c r="J7" t="n">
-        <v>14622</v>
+        <v>20480</v>
       </c>
       <c r="K7" t="n">
-        <v>1422995</v>
+        <v>3042570</v>
       </c>
       <c r="L7" t="n">
-        <v>255300</v>
+        <v>321204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17071376.38</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6539831.67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>78861342.26000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26674754.01</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>129147304.32</v>
+        <v>333374563</v>
       </c>
       <c r="G8" t="n">
-        <v>408898</v>
-      </c>
-      <c r="H8" t="n">
-        <v>729246</v>
-      </c>
+        <v>579762</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>319449</v>
+        <v>479159</v>
       </c>
       <c r="J8" t="n">
-        <v>16482</v>
+        <v>21983</v>
       </c>
       <c r="K8" t="n">
-        <v>1728497</v>
+        <v>3202295</v>
       </c>
       <c r="L8" t="n">
-        <v>270904</v>
+        <v>352053</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -781,29 +731,29 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>161706306.55</v>
+        <v>433913301</v>
       </c>
       <c r="G9" t="n">
-        <v>454920</v>
+        <v>650793</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>386726</v>
+        <v>552006</v>
       </c>
       <c r="J9" t="n">
-        <v>18280</v>
+        <v>24754</v>
       </c>
       <c r="K9" t="n">
-        <v>2123379</v>
+        <v>4285600</v>
       </c>
       <c r="L9" t="n">
-        <v>291700</v>
+        <v>384330</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -811,29 +761,29 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>214098129</v>
+        <v>519152163</v>
       </c>
       <c r="G10" t="n">
-        <v>486530</v>
+        <v>676946</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>421410</v>
+        <v>559094</v>
       </c>
       <c r="J10" t="n">
-        <v>19231</v>
+        <v>23183</v>
       </c>
       <c r="K10" t="n">
-        <v>2444232</v>
+        <v>4472817</v>
       </c>
       <c r="L10" t="n">
-        <v>305167</v>
+        <v>400485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -841,29 +791,29 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>271515354</v>
+        <v>642008586.704</v>
       </c>
       <c r="G11" t="n">
-        <v>484861</v>
+        <v>720412</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>402541</v>
+        <v>576672</v>
       </c>
       <c r="J11" t="n">
-        <v>19262</v>
+        <v>23739</v>
       </c>
       <c r="K11" t="n">
-        <v>2502794</v>
+        <v>4631001</v>
       </c>
       <c r="L11" t="n">
-        <v>303264</v>
+        <v>427776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -871,29 +821,29 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>270890368</v>
+        <v>724966801.25</v>
       </c>
       <c r="G12" t="n">
-        <v>514204</v>
+        <v>767455</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>414378</v>
+        <v>600011</v>
       </c>
       <c r="J12" t="n">
-        <v>20480</v>
+        <v>23741</v>
       </c>
       <c r="K12" t="n">
-        <v>3042570</v>
+        <v>4399733</v>
       </c>
       <c r="L12" t="n">
-        <v>321204</v>
+        <v>462065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -901,143 +851,23 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>333374563</v>
+        <v>840161206.459</v>
       </c>
       <c r="G13" t="n">
-        <v>579762</v>
+        <v>807076</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>479159</v>
+        <v>615268</v>
       </c>
       <c r="J13" t="n">
-        <v>21983</v>
+        <v>26748</v>
       </c>
       <c r="K13" t="n">
-        <v>3202295</v>
+        <v>4832602</v>
       </c>
       <c r="L13" t="n">
-        <v>352053</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>433913301</v>
-      </c>
-      <c r="G14" t="n">
-        <v>650793</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>552006</v>
-      </c>
-      <c r="J14" t="n">
-        <v>24754</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4285600</v>
-      </c>
-      <c r="L14" t="n">
-        <v>384330</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>519152163</v>
-      </c>
-      <c r="G15" t="n">
-        <v>676946</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>559094</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23183</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4472817</v>
-      </c>
-      <c r="L15" t="n">
-        <v>400485</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>642008586.704</v>
-      </c>
-      <c r="G16" t="n">
-        <v>720412</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>576672</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23739</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4631001</v>
-      </c>
-      <c r="L16" t="n">
-        <v>427776</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>724966801.25</v>
-      </c>
-      <c r="G17" t="n">
-        <v>767455</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>600011</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23741</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4399733</v>
-      </c>
-      <c r="L17" t="n">
-        <v>462065</v>
+        <v>498502</v>
       </c>
     </row>
   </sheetData>
